--- a/RUDN/Importance/Varible_f_reg_in_Southern Asia.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Southern Asia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>F-value</t>
   </si>
@@ -22,226 +22,400 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 00-14 (% of total)</t>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
-    <t>Population ages 15-64, female (% of total)</t>
+    <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 05-09, female (% of female population)</t>
+    <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 30-34, female (% of female population)</t>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>Population ages 35-39, male (% of male population)</t>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages10-14, male (% of male population)</t>
+    <t>GDP per capita (Current US$)</t>
   </si>
   <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
+    <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
-    <t>Population ages 70-74, male (% of male population)</t>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
+    <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
-    <t>Age dependency ratio, old</t>
+    <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
     <t>Population ages 55-59, female (% of female population)</t>
   </si>
   <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care (%)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
+    <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force)</t>
@@ -250,39 +424,45 @@
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
   </si>
   <si>
     <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
   </si>
   <si>
-    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
     <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
@@ -298,151 +478,142 @@
     <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>People using safely managed drinking water services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
   </si>
   <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
+    <t>Number of maternal deaths</t>
   </si>
   <si>
     <t>Years</t>
   </si>
   <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care (%)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
     <t>Malaria cases reported</t>
   </si>
   <si>
     <t>Reported cases of malaria</t>
   </si>
   <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
   </si>
 </sst>
 </file>
@@ -800,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>785.3794212035492</v>
+        <v>940.0376477305405</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -830,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>785.3794212035492</v>
+        <v>819.1033126586279</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -841,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>607.8309688919961</v>
+        <v>728.4446290923111</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -852,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>585.9789827493606</v>
+        <v>728.4446290923111</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -863,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>405.6850146462937</v>
+        <v>559.4848540335314</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -874,7 +1045,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>405.6850146462937</v>
+        <v>533.4928403228014</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -885,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>375.8330245795129</v>
+        <v>442.1350729440848</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -896,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>373.6668890324058</v>
+        <v>429.0924134853752</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -907,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>366.7664947653839</v>
+        <v>369.6628219811317</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -918,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>365.3244911968929</v>
+        <v>369.6628219811317</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -929,7 +1100,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>346.4079064432862</v>
+        <v>349.4120658014591</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -940,7 +1111,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>343.6621781815464</v>
+        <v>347.6938225195788</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -951,7 +1122,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>336.213768147685</v>
+        <v>341.4699456232742</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -962,7 +1133,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>331.7014594557175</v>
+        <v>338.9761072123323</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -973,7 +1144,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>326.63611287823</v>
+        <v>338.396834361318</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -984,7 +1155,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>314.1753167172287</v>
+        <v>317.6159942137678</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -995,7 +1166,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>297.8227315576301</v>
+        <v>312.7463542680837</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1006,7 +1177,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>281.0505339949155</v>
+        <v>311.9146739965581</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1017,7 +1188,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>272.7270832001797</v>
+        <v>307.5483449311077</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1028,7 +1199,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>258.9293262629725</v>
+        <v>306.7751089641625</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1039,7 +1210,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>253.0756448516549</v>
+        <v>302.364914026746</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1050,7 +1221,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>220.924375820057</v>
+        <v>288.4451239280576</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1061,7 +1232,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>196.4290648690279</v>
+        <v>276.0578810596797</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1072,7 +1243,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>188.5650756635039</v>
+        <v>274.0958444067012</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1083,7 +1254,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>179.7699392079036</v>
+        <v>259.3031425602349</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1094,7 +1265,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>174.1961412260951</v>
+        <v>257.6872949228933</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1105,7 +1276,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>168.7089033537948</v>
+        <v>256.7431546743013</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1116,7 +1287,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>156.9569328769844</v>
+        <v>250.0746131380255</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1127,7 +1298,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>153.3702361251179</v>
+        <v>242.4586038172994</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1138,7 +1309,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>150.8771341805511</v>
+        <v>241.2382361689471</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1149,7 +1320,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>148.0907161373135</v>
+        <v>238.5271603925925</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1160,7 +1331,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>137.9973268801448</v>
+        <v>198.7506328325402</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1171,7 +1342,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>136.4872076961016</v>
+        <v>196.3325780663134</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1182,7 +1353,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>126.7490509397575</v>
+        <v>182.9444366272158</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1193,7 +1364,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>117.9472834638838</v>
+        <v>181.6572953879654</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1204,7 +1375,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>113.0522610167386</v>
+        <v>179.2928001193078</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1215,7 +1386,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>109.6441566076297</v>
+        <v>171.1622543224923</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1226,7 +1397,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>98.92626445414295</v>
+        <v>168.1575544737201</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1237,7 +1408,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>96.90828835220933</v>
+        <v>156.2052336276566</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1248,7 +1419,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>94.5725320917502</v>
+        <v>150.8906237080521</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1259,7 +1430,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>88.91038620408311</v>
+        <v>145.4185477011214</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1270,7 +1441,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>86.13911262340939</v>
+        <v>145.0350937420216</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1281,7 +1452,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>82.86978432528126</v>
+        <v>143.9078486255922</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1292,7 +1463,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>79.27722634683825</v>
+        <v>132.1007174330148</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1303,7 +1474,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>77.53784967975189</v>
+        <v>131.923704672213</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1314,7 +1485,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>73.73536452873611</v>
+        <v>130.8285685850331</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1325,7 +1496,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>71.28616177114714</v>
+        <v>125.661867208798</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1336,7 +1507,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>70.0233359001539</v>
+        <v>123.363310008264</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1347,7 +1518,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>68.93597534042097</v>
+        <v>123.3027779078114</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1358,7 +1529,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>67.80462406235165</v>
+        <v>119.3548320442294</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1369,7 +1540,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>67.25144942701978</v>
+        <v>118.8366193105706</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1380,7 +1551,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>66.87503135497788</v>
+        <v>115.8196749134871</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1391,7 +1562,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>66.84342222050341</v>
+        <v>114.7110195326682</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1402,7 +1573,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>64.34173809062892</v>
+        <v>112.0355101329238</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1413,7 +1584,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>59.22574629737919</v>
+        <v>102.1975214554141</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1424,7 +1595,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>56.65207127126243</v>
+        <v>101.9130841987958</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1435,7 +1606,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>53.42285817651103</v>
+        <v>101.8474272364112</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1446,7 +1617,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>53.31625925351339</v>
+        <v>101.8382871215558</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1457,7 +1628,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>53.31625925351339</v>
+        <v>98.23373206817983</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1468,7 +1639,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>53.24742505497309</v>
+        <v>98.21749342252147</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1479,7 +1650,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>52.73200920053249</v>
+        <v>96.57102376768466</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1490,7 +1661,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>51.68313819832557</v>
+        <v>93.55714161444352</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1501,7 +1672,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>47.54142622905926</v>
+        <v>89.25246299679299</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1512,7 +1683,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>42.58474942160338</v>
+        <v>86.68548650230295</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1523,7 +1694,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>41.88248752868649</v>
+        <v>84.92147153210996</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1534,7 +1705,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>40.77288791414708</v>
+        <v>82.69796639054641</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1545,7 +1716,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>37.0527478081237</v>
+        <v>81.48012159359918</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1556,7 +1727,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>35.86003095566721</v>
+        <v>79.66284023868701</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1567,7 +1738,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>35.37220488045361</v>
+        <v>77.92536954831577</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1578,7 +1749,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>30.0511922068299</v>
+        <v>76.5596664477906</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1589,7 +1760,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>29.57278402856709</v>
+        <v>76.35963400707413</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1600,7 +1771,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>29.43290037868032</v>
+        <v>75.59224011107638</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1611,7 +1782,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>29.24931621138932</v>
+        <v>73.72228190770156</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1622,7 +1793,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>28.15813371093302</v>
+        <v>73.11117884950859</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1633,7 +1804,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>27.70490419568238</v>
+        <v>71.73684783834796</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1644,7 +1815,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>27.70490419568238</v>
+        <v>71.45350258495304</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1655,7 +1826,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>26.7780319394133</v>
+        <v>71.03452533199125</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1666,7 +1837,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>25.88050620567672</v>
+        <v>70.8587104205162</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1677,7 +1848,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>25.72136442485552</v>
+        <v>70.52898947422706</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1688,7 +1859,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>25.5183951260747</v>
+        <v>70.13854085158964</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1699,7 +1870,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>24.96375293709144</v>
+        <v>69.85380163627075</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1710,7 +1881,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>24.45555946786047</v>
+        <v>69.85380163627075</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1721,7 +1892,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>24.03274445300766</v>
+        <v>68.51311755690109</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1732,7 +1903,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>23.11437941033009</v>
+        <v>67.18162694863493</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1743,10 +1914,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>20.89264919951694</v>
+        <v>66.69154142245802</v>
       </c>
       <c r="C86">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1754,10 +1925,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>19.64247814916058</v>
+        <v>65.32647441676906</v>
       </c>
       <c r="C87">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1765,10 +1936,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>18.64446217043856</v>
+        <v>64.90287710342662</v>
       </c>
       <c r="C88">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1776,10 +1947,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>18.02297865021461</v>
+        <v>62.50088651850419</v>
       </c>
       <c r="C89">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1787,10 +1958,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>17.75118618574384</v>
+        <v>62.33876001988381</v>
       </c>
       <c r="C90">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1798,10 +1969,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>17.74996409436186</v>
+        <v>57.75576013574996</v>
       </c>
       <c r="C91">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1809,10 +1980,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>17.74979702327678</v>
+        <v>57.41534089313529</v>
       </c>
       <c r="C92">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1820,10 +1991,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>17.74940351266959</v>
+        <v>57.41534089313529</v>
       </c>
       <c r="C93">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1831,10 +2002,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>17.53448889505636</v>
+        <v>56.14455758947767</v>
       </c>
       <c r="C94">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1842,10 +2013,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>17.09866485523475</v>
+        <v>55.98064112553556</v>
       </c>
       <c r="C95">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1853,10 +2024,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>16.8785995957636</v>
+        <v>54.21345601537094</v>
       </c>
       <c r="C96">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1864,10 +2035,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>16.67366191663086</v>
+        <v>52.03182527435817</v>
       </c>
       <c r="C97">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1875,10 +2046,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>16.59292478133289</v>
+        <v>52.03182527435817</v>
       </c>
       <c r="C98">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1886,10 +2057,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>16.38075214854742</v>
+        <v>51.88676415353203</v>
       </c>
       <c r="C99">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1897,10 +2068,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>16.3504958121218</v>
+        <v>51.14362468048024</v>
       </c>
       <c r="C100">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1908,10 +2079,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>16.32461266774225</v>
+        <v>50.1091623033552</v>
       </c>
       <c r="C101">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1919,10 +2090,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>16.22270792271359</v>
+        <v>49.98497217783753</v>
       </c>
       <c r="C102">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1930,10 +2101,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>16.18362945720656</v>
+        <v>49.8865156655356</v>
       </c>
       <c r="C103">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1941,10 +2112,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>15.25540313525632</v>
+        <v>49.29009848144765</v>
       </c>
       <c r="C104">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1952,10 +2123,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>13.87538042008903</v>
+        <v>49.04472901695333</v>
       </c>
       <c r="C105">
-        <v>0.00031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1963,10 +2134,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>13.73160196346018</v>
+        <v>48.93138194362866</v>
       </c>
       <c r="C106">
-        <v>0.00033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1974,10 +2145,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>12.22233910131688</v>
+        <v>48.34507607689555</v>
       </c>
       <c r="C107">
-        <v>0.00068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1985,10 +2156,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>12.01070103032122</v>
+        <v>48.1188392179557</v>
       </c>
       <c r="C108">
-        <v>0.00076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1996,10 +2167,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>11.43386804961817</v>
+        <v>48.11883921795451</v>
       </c>
       <c r="C109">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2007,10 +2178,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>11.20995741689397</v>
+        <v>46.42917863475978</v>
       </c>
       <c r="C110">
-        <v>0.00111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2018,10 +2189,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>11.20696989144639</v>
+        <v>45.91519940847027</v>
       </c>
       <c r="C111">
-        <v>0.00112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2029,10 +2200,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>11.20678340458658</v>
+        <v>44.51852862170961</v>
       </c>
       <c r="C112">
-        <v>0.00112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2040,10 +2211,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>11.20664021493277</v>
+        <v>41.35628743302446</v>
       </c>
       <c r="C113">
-        <v>0.00112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2051,10 +2222,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>11.20661999523005</v>
+        <v>41.00030122713009</v>
       </c>
       <c r="C114">
-        <v>0.00112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2062,10 +2233,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>11.20658844072882</v>
+        <v>40.56170067653719</v>
       </c>
       <c r="C115">
-        <v>0.00112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2073,10 +2244,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>11.20610981167145</v>
+        <v>39.53644427593041</v>
       </c>
       <c r="C116">
-        <v>0.00112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2084,10 +2255,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>11.20598656162964</v>
+        <v>38.05157793467796</v>
       </c>
       <c r="C117">
-        <v>0.00112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2095,10 +2266,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>11.20524985410372</v>
+        <v>34.42530408854467</v>
       </c>
       <c r="C118">
-        <v>0.00112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2106,10 +2277,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>11.11642818104494</v>
+        <v>34.34731987876852</v>
       </c>
       <c r="C119">
-        <v>0.00117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2117,10 +2288,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>10.98864892601513</v>
+        <v>34.34731987876852</v>
       </c>
       <c r="C120">
-        <v>0.00124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2128,10 +2299,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>10.88489034436961</v>
+        <v>32.09471227018559</v>
       </c>
       <c r="C121">
-        <v>0.00131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2139,10 +2310,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>10.75856554601049</v>
+        <v>31.08465230679583</v>
       </c>
       <c r="C122">
-        <v>0.00139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2150,10 +2321,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>10.68942419048589</v>
+        <v>29.83883420536588</v>
       </c>
       <c r="C123">
-        <v>0.00144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2161,10 +2332,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>10.03560132545368</v>
+        <v>29.47071283679344</v>
       </c>
       <c r="C124">
-        <v>0.00199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2172,10 +2343,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>9.989850094933834</v>
+        <v>28.02202497422487</v>
       </c>
       <c r="C125">
-        <v>0.00203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2183,10 +2354,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>9.984233292446925</v>
+        <v>27.8042542457375</v>
       </c>
       <c r="C126">
-        <v>0.00204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2194,10 +2365,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>9.960424661838218</v>
+        <v>27.62004725349243</v>
       </c>
       <c r="C127">
-        <v>0.00206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2205,10 +2376,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>9.901584302915388</v>
+        <v>27.60638038417969</v>
       </c>
       <c r="C128">
-        <v>0.00212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2216,10 +2387,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>9.741569389496862</v>
+        <v>26.11031048087645</v>
       </c>
       <c r="C129">
-        <v>0.0023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2227,10 +2398,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>9.205398057646997</v>
+        <v>25.85731920209778</v>
       </c>
       <c r="C130">
-        <v>0.00301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2238,10 +2409,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>9.17657431580227</v>
+        <v>25.70689749574792</v>
       </c>
       <c r="C131">
-        <v>0.00306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2249,10 +2420,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>9.14310835735483</v>
+        <v>25.09987682230098</v>
       </c>
       <c r="C132">
-        <v>0.00311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2260,10 +2431,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>8.887715289556155</v>
+        <v>24.85492194903895</v>
       </c>
       <c r="C133">
-        <v>0.00354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2271,10 +2442,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>8.829840605372816</v>
+        <v>23.27584334478791</v>
       </c>
       <c r="C134">
-        <v>0.00364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2282,10 +2453,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>8.679911690325204</v>
+        <v>23.27584334478791</v>
       </c>
       <c r="C135">
-        <v>0.00393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2293,10 +2464,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>8.341061854058468</v>
+        <v>22.93870923341773</v>
       </c>
       <c r="C136">
-        <v>0.00467</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2304,10 +2475,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>8.328841825838179</v>
+        <v>22.90013394428141</v>
       </c>
       <c r="C137">
-        <v>0.0047</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2315,10 +2486,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>8.328841825838179</v>
+        <v>22.86463915340233</v>
       </c>
       <c r="C138">
-        <v>0.0047</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2326,10 +2497,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>7.750934779622631</v>
+        <v>22.36091365331817</v>
       </c>
       <c r="C139">
-        <v>0.00632</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2337,10 +2508,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>7.667205020982633</v>
+        <v>20.73228367559352</v>
       </c>
       <c r="C140">
-        <v>0.0066</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2348,10 +2519,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>7.496040671917448</v>
+        <v>19.75246982815084</v>
       </c>
       <c r="C141">
-        <v>0.00721</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2359,10 +2530,637 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>7.044919793637971</v>
+        <v>19.18635267637869</v>
       </c>
       <c r="C142">
-        <v>0.009129999999999999</v>
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>18.87807105469995</v>
+      </c>
+      <c r="C143">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>18.27280639838253</v>
+      </c>
+      <c r="C144">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>17.99377210968065</v>
+      </c>
+      <c r="C145">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>17.25847480431196</v>
+      </c>
+      <c r="C146">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>17.17521609909722</v>
+      </c>
+      <c r="C147">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>16.74602748453165</v>
+      </c>
+      <c r="C148">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>16.52253848430005</v>
+      </c>
+      <c r="C149">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>16.25892348154869</v>
+      </c>
+      <c r="C150">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>16.25779005997807</v>
+      </c>
+      <c r="C151">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>16.25763187393967</v>
+      </c>
+      <c r="C152">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>16.25725509261297</v>
+      </c>
+      <c r="C153">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>15.72835766906078</v>
+      </c>
+      <c r="C154">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>15.53888921712192</v>
+      </c>
+      <c r="C155">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>15.06832100302115</v>
+      </c>
+      <c r="C156">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>14.66210578009517</v>
+      </c>
+      <c r="C157">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>14.66189273703277</v>
+      </c>
+      <c r="C158">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>14.6615643790133</v>
+      </c>
+      <c r="C159">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>14.66155208626683</v>
+      </c>
+      <c r="C160">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>14.66141856505766</v>
+      </c>
+      <c r="C161">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>14.66082094002548</v>
+      </c>
+      <c r="C162">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>14.66049790896525</v>
+      </c>
+      <c r="C163">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>14.65962157361817</v>
+      </c>
+      <c r="C164">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>14.62155957653702</v>
+      </c>
+      <c r="C165">
+        <v>0.00023</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>14.55066053939015</v>
+      </c>
+      <c r="C166">
+        <v>0.00023</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>14.34995731286189</v>
+      </c>
+      <c r="C167">
+        <v>0.00026</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>14.27964378022723</v>
+      </c>
+      <c r="C168">
+        <v>0.00027</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>14.20639246970214</v>
+      </c>
+      <c r="C169">
+        <v>0.00027</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>14.073257506806</v>
+      </c>
+      <c r="C170">
+        <v>0.00029</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>13.7739827520773</v>
+      </c>
+      <c r="C171">
+        <v>0.00034</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>13.60871885685219</v>
+      </c>
+      <c r="C172">
+        <v>0.00036</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>12.95018474756452</v>
+      </c>
+      <c r="C173">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>12.45504910034119</v>
+      </c>
+      <c r="C174">
+        <v>0.00063</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>12.35982664955803</v>
+      </c>
+      <c r="C175">
+        <v>0.00066</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>12.33579843471738</v>
+      </c>
+      <c r="C176">
+        <v>0.00066</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>12.10818068779915</v>
+      </c>
+      <c r="C177">
+        <v>0.00074</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>11.04042329414868</v>
+      </c>
+      <c r="C178">
+        <v>0.00124</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>10.93651142081471</v>
+      </c>
+      <c r="C179">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>10.7940368909038</v>
+      </c>
+      <c r="C180">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>10.7654602571975</v>
+      </c>
+      <c r="C181">
+        <v>0.00142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>10.60535671897805</v>
+      </c>
+      <c r="C182">
+        <v>0.00153</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>10.53526144580295</v>
+      </c>
+      <c r="C183">
+        <v>0.00158</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>10.46026203981768</v>
+      </c>
+      <c r="C184">
+        <v>0.00164</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>10.00146278366397</v>
+      </c>
+      <c r="C185">
+        <v>0.00206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>9.741521087909096</v>
+      </c>
+      <c r="C186">
+        <v>0.00234</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>9.732301434433143</v>
+      </c>
+      <c r="C187">
+        <v>0.00235</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>9.678572943637228</v>
+      </c>
+      <c r="C188">
+        <v>0.00242</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>9.382204543256503</v>
+      </c>
+      <c r="C189">
+        <v>0.0028</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>8.980215427551803</v>
+      </c>
+      <c r="C190">
+        <v>0.00343</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>8.950709309382537</v>
+      </c>
+      <c r="C191">
+        <v>0.00348</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>8.939387876198369</v>
+      </c>
+      <c r="C192">
+        <v>0.0035</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>8.382614673564373</v>
+      </c>
+      <c r="C193">
+        <v>0.00463</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>8.157978513468246</v>
+      </c>
+      <c r="C194">
+        <v>0.0052</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>7.544890614930097</v>
+      </c>
+      <c r="C195">
+        <v>0.00712</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>7.544890614930097</v>
+      </c>
+      <c r="C196">
+        <v>0.00712</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>7.033698976919313</v>
+      </c>
+      <c r="C197">
+        <v>0.00928</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>7.033698976919313</v>
+      </c>
+      <c r="C198">
+        <v>0.00928</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>6.946760029604625</v>
+      </c>
+      <c r="C199">
+        <v>0.00971</v>
       </c>
     </row>
   </sheetData>
